--- a/Location_based_analysis/OnOff_Ttest/wsl.xlsx
+++ b/Location_based_analysis/OnOff_Ttest/wsl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rainfall\Location_based_analysis\OnOff_Ttest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8574119E-4632-4373-9D3E-FFEBC1E9221F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403CD7DE-74D5-42D1-8D1F-FFF4F5BAB0FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>ON</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -78,13 +78,17 @@
     <t>sum</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -719,13 +723,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -746,6 +747,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1071,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1084,89 +1088,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="D1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="15" t="s">
+      <c r="E1" s="23"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="16" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2">
         <v>0.52</v>
       </c>
-      <c r="D2" s="1">
-        <v>44378</v>
-      </c>
-      <c r="E2" s="2">
-        <v>34.51</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="14">
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="13">
         <v>43586</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <v>512.95968711091939</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="19">
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="18">
         <v>6.6564793944700904</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2" s="18">
         <v>817.48073896599965</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="16">
         <f>_xlfn.T.TEST(L2:L8,M2:M5,1,2)</f>
         <v>0.12659736360343696</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="11"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -1182,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>43617</v>
       </c>
       <c r="I3" s="4">
@@ -1190,13 +1194,13 @@
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="19">
+      <c r="L3" s="18">
         <v>9.9447513812154706E-2</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="18">
         <v>519.89576649499998</v>
       </c>
-      <c r="N3" s="19"/>
+      <c r="N3" s="18"/>
       <c r="P3" s="5"/>
       <c r="R3" s="5"/>
       <c r="T3" s="5"/>
@@ -1215,7 +1219,7 @@
         <v>32.96</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>43647</v>
       </c>
       <c r="I4" s="4">
@@ -1223,13 +1227,13 @@
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="19">
+      <c r="L4" s="18">
         <v>4.1801505263563197</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="18">
         <v>30.854619134000004</v>
       </c>
-      <c r="N4" s="19"/>
+      <c r="N4" s="18"/>
       <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -1246,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>43678</v>
       </c>
       <c r="I5" s="4">
@@ -1254,13 +1258,13 @@
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="19">
+      <c r="L5" s="18">
         <v>22.73794564833473</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="18">
         <v>0.29861830300000003</v>
       </c>
-      <c r="N5" s="19"/>
+      <c r="N5" s="18"/>
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -1277,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>43709</v>
       </c>
       <c r="I6" s="4">
@@ -1285,11 +1289,11 @@
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="19">
+      <c r="L6" s="18">
         <v>174.22952140604698</v>
       </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
     </row>
@@ -1307,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>43739</v>
       </c>
       <c r="I7" s="4">
@@ -1315,11 +1319,11 @@
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="19">
+      <c r="L7" s="18">
         <v>396.73523734109381</v>
       </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
       <c r="P7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -1339,7 +1343,7 @@
         <v>7.69</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>43770</v>
       </c>
       <c r="I8" s="5">
@@ -1347,11 +1351,11 @@
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="19">
+      <c r="L8" s="18">
         <v>349.1463007210001</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="19"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="18"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
@@ -1372,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>43800</v>
       </c>
       <c r="I9" s="5">
@@ -1382,11 +1386,11 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
       <c r="T9" s="5"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
@@ -1403,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>43831</v>
       </c>
       <c r="I10" s="5">
@@ -1414,11 +1418,11 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
       <c r="T10" s="5"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -1435,7 +1439,7 @@
         <v>47.42</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>43862</v>
       </c>
       <c r="I11" s="5">
@@ -1446,11 +1450,11 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="20"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="19"/>
       <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -1467,29 +1471,29 @@
         <v>0.2</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>43891</v>
       </c>
       <c r="I12" s="5">
         <v>4.1801505263563197</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="17" t="s">
+      <c r="L12" s="18"/>
+      <c r="M12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="16" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="22" t="s">
+      <c r="P12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="19"/>
       <c r="T12" s="5"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
@@ -1506,31 +1510,31 @@
         <v>6.34</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>43922</v>
       </c>
       <c r="I13" s="5">
         <v>22.73794564833473</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="18">
+      <c r="L13" s="18"/>
+      <c r="M13" s="17">
         <v>817.48073896599965</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="17">
         <v>599.00267020465969</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13" s="16">
         <f>_xlfn.T.TEST(M13:M16,N13:N16,1,2)</f>
         <v>0.42555720579683842</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="22">
         <f>(M17-N17)/N17</f>
         <v>0.15588487782729762</v>
       </c>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="19"/>
       <c r="T13" s="5"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -1547,25 +1551,25 @@
         <v>0.1</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>43952</v>
       </c>
       <c r="I14" s="5">
         <v>174.22952140604698</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="18">
+      <c r="L14" s="18"/>
+      <c r="M14" s="17">
         <v>519.89576649499998</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="17">
         <v>384.92218222893007</v>
       </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="20"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="19"/>
       <c r="T14" s="5"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -1582,25 +1586,25 @@
         <v>0</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>43983</v>
       </c>
       <c r="I15" s="5">
         <v>396.73523734109381</v>
       </c>
       <c r="J15" s="5"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="18">
+      <c r="L15" s="18"/>
+      <c r="M15" s="17">
         <v>30.854619134000004</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="17">
         <v>193.57014313093526</v>
       </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="20"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="19"/>
       <c r="T15" s="5"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
@@ -1617,25 +1621,25 @@
         <v>1.2</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>44013</v>
       </c>
       <c r="I16" s="5">
         <v>349.1463007210001</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="18">
+      <c r="L16" s="18"/>
+      <c r="M16" s="17">
         <v>0.29861830300000003</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="17">
         <v>6.4721703269501747</v>
       </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="20"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="19"/>
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -1652,29 +1656,29 @@
         <v>0</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>44044</v>
       </c>
       <c r="I17" s="5">
         <v>817.48073896599965</v>
       </c>
       <c r="J17" s="5"/>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="18">
         <f>SUM(M13:M16)</f>
         <v>1368.5297428979995</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="18">
         <f>SUM(N13:N16)</f>
         <v>1183.9671658914751</v>
       </c>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="20"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="19"/>
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -1691,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>44075</v>
       </c>
       <c r="I18" s="5">
@@ -1702,11 +1706,11 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="19"/>
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -1723,22 +1727,22 @@
         <v>0</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>44105</v>
       </c>
       <c r="I19" s="5">
         <v>30.854619134000004</v>
       </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -1755,22 +1759,22 @@
         <v>73.95</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>44136</v>
       </c>
       <c r="I20" s="5">
         <v>0.29861830300000003</v>
       </c>
       <c r="J20" s="5"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -1790,15 +1794,15 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -1818,12 +1822,12 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="20"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="19"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -1846,12 +1850,12 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
@@ -1874,12 +1878,12 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
@@ -1902,12 +1906,12 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
@@ -1947,7 +1951,7 @@
       </c>
       <c r="E27" s="2">
         <f>AVERAGE(E2:E25)</f>
-        <v>9.8878938032499999</v>
+        <v>8.8173674468695662</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="5"/>
@@ -1976,7 +1980,7 @@
       </c>
       <c r="E28">
         <f>_xlfn.T.TEST(B2:B45,E2:E21,1,2)</f>
-        <v>0.17034412933209442</v>
+        <v>0.14583242228970356</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="5"/>
@@ -2005,7 +2009,7 @@
       </c>
       <c r="E29" s="8">
         <f>(B48-E27)/E27</f>
-        <v>1.0318004695928187</v>
+        <v>1.2784836169961267</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="5"/>

--- a/Location_based_analysis/OnOff_Ttest/wsl.xlsx
+++ b/Location_based_analysis/OnOff_Ttest/wsl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rainfall\Location_based_analysis\OnOff_Ttest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403CD7DE-74D5-42D1-8D1F-FFF4F5BAB0FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491142A1-F566-44D4-B159-EF3907C0AEB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>ON</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -47,27 +47,126 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>时间</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>月降雨量</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020_1-7</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020_8-11</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>T-test</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>2019_8-11</t>
+    <t>sum</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTEST</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机天数</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续时间段</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ttest</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>average19-</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>6月</t>
+  </si>
+  <si>
+    <t>7月</t>
+  </si>
+  <si>
+    <t>8月</t>
+  </si>
+  <si>
+    <t>9月</t>
+  </si>
+  <si>
+    <t>10月</t>
+  </si>
+  <si>
+    <t>11月</t>
+  </si>
+  <si>
+    <t>12月</t>
+  </si>
+  <si>
+    <t>2020_sum</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-19</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌鞘岭站</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020_1-6</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020_7-12</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>07-12sum</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>T-test</t>
+  </si>
+  <si>
+    <t>2020_2</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>all-year</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -75,11 +174,7 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>sum</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>T-test</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +183,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -270,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,6 +557,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -708,7 +809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -726,31 +827,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="58" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1073,106 +1174,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z65"/>
+  <dimension ref="A1:AI65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="10.9140625" customWidth="1"/>
-    <col min="10" max="10" width="8.9140625" customWidth="1"/>
-    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="24"/>
+    <col min="29" max="29" width="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="D1" s="23" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E1" s="21"/>
+      <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2020</v>
+      </c>
+      <c r="I1" s="3">
+        <v>2019</v>
+      </c>
+      <c r="J1" s="3">
+        <v>2018</v>
+      </c>
+      <c r="K1" s="3">
+        <v>2017</v>
+      </c>
+      <c r="L1" s="3">
+        <v>2016</v>
+      </c>
+      <c r="M1" s="3">
+        <v>2015</v>
+      </c>
+      <c r="N1" s="3">
+        <v>2014</v>
+      </c>
+      <c r="O1" s="3">
+        <v>2013</v>
+      </c>
+      <c r="P1" s="3">
+        <v>2012</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>2011</v>
+      </c>
+      <c r="R1" s="3">
+        <v>2010</v>
+      </c>
+      <c r="S1" s="3">
+        <v>2009</v>
+      </c>
+      <c r="T1" s="3">
+        <v>2008</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="12"/>
+      <c r="X1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2">
         <v>0.52</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="13">
-        <v>43586</v>
-      </c>
-      <c r="I2" s="10">
-        <v>512.95968711091939</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="18">
-        <v>6.6564793944700904</v>
-      </c>
-      <c r="M2" s="18">
-        <v>817.48073896599965</v>
-      </c>
-      <c r="N2" s="16">
-        <f>_xlfn.T.TEST(L2:L8,M2:M5,1,2)</f>
-        <v>0.12659736360343696</v>
-      </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="10"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <v>44378</v>
+      </c>
+      <c r="E2" s="2">
+        <v>34.51</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>7.1000000000000014</v>
+      </c>
+      <c r="I2">
+        <v>2.1</v>
+      </c>
+      <c r="J2">
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="K2">
+        <v>0.3</v>
+      </c>
+      <c r="L2">
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="M2">
+        <v>2.7</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>2.5</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="S2">
+        <v>0.2</v>
+      </c>
+      <c r="T2">
+        <v>5.6</v>
+      </c>
+      <c r="U2">
+        <f>AVERAGE(I2:T2)</f>
+        <v>2.1833333333333331</v>
+      </c>
+      <c r="V2" s="25"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44388</v>
       </c>
@@ -1185,27 +1350,80 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="13">
-        <v>43617</v>
-      </c>
-      <c r="I3" s="4">
-        <v>615.31402754687019</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="18">
-        <v>9.9447513812154706E-2</v>
-      </c>
-      <c r="M3" s="18">
-        <v>519.89576649499998</v>
-      </c>
-      <c r="N3" s="18"/>
-      <c r="P3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="T3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>2.9</v>
+      </c>
+      <c r="I3">
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="J3">
+        <v>5.7</v>
+      </c>
+      <c r="K3">
+        <v>3.1</v>
+      </c>
+      <c r="L3">
+        <v>6.2</v>
+      </c>
+      <c r="M3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N3">
+        <v>15.9</v>
+      </c>
+      <c r="O3">
+        <v>5.9</v>
+      </c>
+      <c r="P3">
+        <v>0.9</v>
+      </c>
+      <c r="Q3">
+        <v>2.1</v>
+      </c>
+      <c r="R3">
+        <v>3.4</v>
+      </c>
+      <c r="S3">
+        <v>3.6</v>
+      </c>
+      <c r="T3">
+        <v>1.9</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U12" si="0">AVERAGE(I3:T3)</f>
+        <v>5.4333333333333336</v>
+      </c>
+      <c r="V3" s="6"/>
+      <c r="X3" s="1">
+        <v>192</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="1">
+        <v>44378</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>34.51</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>44432</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>44454</v>
+      </c>
+      <c r="AI3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44393</v>
       </c>
@@ -1218,25 +1436,80 @@
       <c r="E4" s="2">
         <v>32.96</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="13">
-        <v>43647</v>
-      </c>
-      <c r="I4" s="4">
-        <v>797.49724346193011</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="18">
-        <v>4.1801505263563197</v>
-      </c>
-      <c r="M4" s="18">
-        <v>30.854619134000004</v>
-      </c>
-      <c r="N4" s="18"/>
-      <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>8.9</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>2.8</v>
+      </c>
+      <c r="K4">
+        <v>22.4</v>
+      </c>
+      <c r="L4">
+        <v>29.2</v>
+      </c>
+      <c r="M4">
+        <v>3.2</v>
+      </c>
+      <c r="N4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="O4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P4">
+        <v>7.6</v>
+      </c>
+      <c r="Q4">
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="R4">
+        <v>7.6999999999999966</v>
+      </c>
+      <c r="S4">
+        <v>6.7999999999999989</v>
+      </c>
+      <c r="T4">
+        <v>12.3</v>
+      </c>
+      <c r="U4">
+        <f>AVERAGE(I4:T4)</f>
+        <v>9.2833333333333332</v>
+      </c>
+      <c r="V4" s="6"/>
+      <c r="X4" s="1">
+        <v>44388</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>27.63</v>
+      </c>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="1">
+        <v>44389</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>44433</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>44455</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44398</v>
       </c>
@@ -1249,25 +1522,80 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="13">
-        <v>43678</v>
-      </c>
-      <c r="I5" s="4">
-        <v>599.00267020465969</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="18">
-        <v>22.73794564833473</v>
-      </c>
-      <c r="M5" s="18">
-        <v>0.29861830300000003</v>
-      </c>
-      <c r="N5" s="18"/>
-      <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>29.3</v>
+      </c>
+      <c r="J5">
+        <v>23.2</v>
+      </c>
+      <c r="K5">
+        <v>31.4</v>
+      </c>
+      <c r="L5">
+        <v>29.5</v>
+      </c>
+      <c r="M5">
+        <v>29</v>
+      </c>
+      <c r="N5">
+        <v>47.4</v>
+      </c>
+      <c r="O5">
+        <v>16.5</v>
+      </c>
+      <c r="P5">
+        <v>5.7999999999999989</v>
+      </c>
+      <c r="Q5">
+        <v>5.8</v>
+      </c>
+      <c r="R5">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="S5">
+        <v>11.1</v>
+      </c>
+      <c r="T5">
+        <v>14</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>21.883333333333336</v>
+      </c>
+      <c r="V5" s="6"/>
+      <c r="X5" s="1">
+        <v>44393</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>15.64</v>
+      </c>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="1">
+        <v>44390</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>32.96</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>44434</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>44456</v>
+      </c>
+      <c r="AI5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44400</v>
       </c>
@@ -1275,29 +1603,84 @@
         <v>88.95</v>
       </c>
       <c r="D6" s="1">
-        <v>44396</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="13">
-        <v>43709</v>
-      </c>
-      <c r="I6" s="4">
-        <v>384.92218222893007</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="18">
-        <v>174.22952140604698</v>
-      </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+        <v>44392</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>37.1</v>
+      </c>
+      <c r="I6">
+        <v>83.4</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>29</v>
+      </c>
+      <c r="L6">
+        <v>32.6</v>
+      </c>
+      <c r="M6">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="N6">
+        <v>22.3</v>
+      </c>
+      <c r="O6">
+        <v>30.4</v>
+      </c>
+      <c r="P6">
+        <v>48.20000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>54.3</v>
+      </c>
+      <c r="R6">
+        <v>46.900000000000013</v>
+      </c>
+      <c r="S6">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="T6">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>40.791666666666671</v>
+      </c>
+      <c r="V6" s="6"/>
+      <c r="X6" s="1">
+        <v>44398</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>44391</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>44435</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>44457</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44402</v>
       </c>
@@ -1305,31 +1688,84 @@
         <v>0.4</v>
       </c>
       <c r="D7" s="1">
-        <v>44397</v>
+        <v>44396</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="13">
-        <v>43739</v>
-      </c>
-      <c r="I7" s="4">
-        <v>193.57014313093526</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="18">
-        <v>396.73523734109381</v>
-      </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="P7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>67.2</v>
+      </c>
+      <c r="I7">
+        <v>110.5</v>
+      </c>
+      <c r="J7">
+        <v>36.400000000000013</v>
+      </c>
+      <c r="K7">
+        <v>95.399999999999991</v>
+      </c>
+      <c r="L7">
+        <v>101.1</v>
+      </c>
+      <c r="M7">
+        <v>97.999999999999972</v>
+      </c>
+      <c r="N7">
+        <v>130.1</v>
+      </c>
+      <c r="O7">
+        <v>55.79999999999999</v>
+      </c>
+      <c r="P7">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="Q7">
+        <v>81.5</v>
+      </c>
+      <c r="R7">
+        <v>104.1</v>
+      </c>
+      <c r="S7">
+        <v>64.699999999999989</v>
+      </c>
+      <c r="T7">
+        <v>69.2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>89.666666666666671</v>
+      </c>
+      <c r="V7" s="6"/>
+      <c r="X7" s="1">
+        <v>44400</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>88.95</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>44392</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>44436</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>44458</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44403</v>
       </c>
@@ -1337,32 +1773,89 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>44401</v>
-      </c>
-      <c r="E8" s="2">
-        <v>7.69</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="13">
-        <v>43770</v>
-      </c>
-      <c r="I8" s="5">
-        <v>6.4721703269501747</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="18">
-        <v>349.1463007210001</v>
-      </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="18"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+        <v>44397</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="14">
+        <v>79.399999999999991</v>
+      </c>
+      <c r="I8" s="14">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="J8" s="14">
+        <v>118.6</v>
+      </c>
+      <c r="K8" s="14">
+        <v>76</v>
+      </c>
+      <c r="L8" s="14">
+        <v>120.4</v>
+      </c>
+      <c r="M8" s="14">
+        <v>73.600000000000009</v>
+      </c>
+      <c r="N8" s="14">
+        <v>88.999999999999986</v>
+      </c>
+      <c r="O8" s="14">
+        <v>71.5</v>
+      </c>
+      <c r="P8" s="14">
+        <v>179</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>53.399999999999991</v>
+      </c>
+      <c r="R8" s="14">
+        <v>38.900000000000013</v>
+      </c>
+      <c r="S8" s="14">
+        <v>68.5</v>
+      </c>
+      <c r="T8" s="14">
+        <v>69.899999999999991</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>92.25</v>
+      </c>
+      <c r="V8" s="6">
+        <f>(H8-U8)/U8</f>
+        <v>-0.13929539295392962</v>
+      </c>
+      <c r="W8" s="5"/>
+      <c r="X8" s="1">
+        <v>44402</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="1">
+        <v>44396</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>44437</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>231.92</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>44459</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44406</v>
       </c>
@@ -1370,30 +1863,89 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>44405</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="13">
-        <v>43800</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="5"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+        <v>44401</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7.69</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>145.4</v>
+      </c>
+      <c r="I9">
+        <v>93.100000000000009</v>
+      </c>
+      <c r="J9">
+        <v>182.09999999999991</v>
+      </c>
+      <c r="K9">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="L9">
+        <v>75.3</v>
+      </c>
+      <c r="M9">
+        <v>54.3</v>
+      </c>
+      <c r="N9">
+        <v>88.59999999999998</v>
+      </c>
+      <c r="O9">
+        <v>82.6</v>
+      </c>
+      <c r="P9">
+        <v>104</v>
+      </c>
+      <c r="Q9">
+        <v>106.4</v>
+      </c>
+      <c r="R9">
+        <v>48.599999999999987</v>
+      </c>
+      <c r="S9">
+        <v>83.7</v>
+      </c>
+      <c r="T9">
+        <v>89.4</v>
+      </c>
+      <c r="U9">
+        <f>AVERAGE(I9:T9)</f>
+        <v>94.7</v>
+      </c>
+      <c r="V9" s="6">
+        <f>(H9-U9)/U9</f>
+        <v>0.53537486800422385</v>
+      </c>
+      <c r="W9" s="16"/>
+      <c r="X9" s="1">
+        <v>44403</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="1">
+        <v>44397</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>44438</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>16.57</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>44460</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>73.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44409</v>
       </c>
@@ -1401,31 +1953,89 @@
         <v>0.5</v>
       </c>
       <c r="D10" s="1">
-        <v>44408</v>
+        <v>44405</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="13">
-        <v>43831</v>
-      </c>
-      <c r="I10" s="5">
-        <v>6.6564793944700904</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>83.09999999999998</v>
+      </c>
+      <c r="I10">
+        <v>57.400000000000013</v>
+      </c>
+      <c r="J10">
+        <v>76.2</v>
+      </c>
+      <c r="K10">
+        <v>52</v>
+      </c>
+      <c r="L10">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="M10">
+        <v>78.999999999999986</v>
+      </c>
+      <c r="N10">
+        <v>50.2</v>
+      </c>
+      <c r="O10">
+        <v>29.2</v>
+      </c>
+      <c r="P10">
+        <v>85.199999999999974</v>
+      </c>
+      <c r="Q10">
+        <v>129.9</v>
+      </c>
+      <c r="R10">
+        <v>71.800000000000011</v>
+      </c>
+      <c r="S10">
+        <v>67.000000000000014</v>
+      </c>
+      <c r="T10">
+        <v>63.3</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>69.716666666666654</v>
+      </c>
+      <c r="V10" s="6">
+        <f t="shared" ref="V9:V13" si="1">(H10-U10)/U10</f>
+        <v>0.19196748744919906</v>
+      </c>
+      <c r="W10" s="17"/>
+      <c r="X10" s="1">
+        <v>44406</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="1">
+        <v>44401</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>7.69</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>44439</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>21.37</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>44461</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44410</v>
       </c>
@@ -1433,31 +2043,85 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>44412</v>
-      </c>
-      <c r="E11" s="2">
-        <v>47.42</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="13">
-        <v>43862</v>
-      </c>
-      <c r="I11" s="5">
-        <v>9.9447513812154706E-2</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+        <v>44408</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>11.9</v>
+      </c>
+      <c r="I11">
+        <v>40.6</v>
+      </c>
+      <c r="J11">
+        <v>15.6</v>
+      </c>
+      <c r="K11">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="L11">
+        <v>28.9</v>
+      </c>
+      <c r="M11">
+        <v>14.7</v>
+      </c>
+      <c r="N11">
+        <v>24.5</v>
+      </c>
+      <c r="O11">
+        <v>6.1000000000000014</v>
+      </c>
+      <c r="P11">
+        <v>15.6</v>
+      </c>
+      <c r="Q11">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="R11">
+        <v>26.2</v>
+      </c>
+      <c r="S11">
+        <v>27.6</v>
+      </c>
+      <c r="T11">
+        <v>20.8</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>24.183333333333334</v>
+      </c>
+      <c r="V11" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.50792556857339766</v>
+      </c>
+      <c r="W11" s="16"/>
+      <c r="X11" s="1">
+        <v>44409</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="1">
+        <v>44405</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>44440</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>4.72</v>
+      </c>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="2"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44414</v>
       </c>
@@ -1465,38 +2129,85 @@
         <v>0.8</v>
       </c>
       <c r="D12" s="1">
-        <v>44416</v>
-      </c>
-      <c r="E12">
-        <v>0.2</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="13">
-        <v>43891</v>
-      </c>
-      <c r="I12" s="5">
-        <v>4.1801505263563197</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+        <v>44412</v>
+      </c>
+      <c r="E12" s="2">
+        <v>47.42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <v>2.5</v>
+      </c>
+      <c r="I12">
+        <v>10.8</v>
+      </c>
+      <c r="J12">
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <v>1.7</v>
+      </c>
+      <c r="L12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M12">
+        <v>14.8</v>
+      </c>
+      <c r="N12">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O12">
+        <v>2.7</v>
+      </c>
+      <c r="P12">
+        <v>9.5</v>
+      </c>
+      <c r="Q12">
+        <v>7.4</v>
+      </c>
+      <c r="R12">
+        <v>2.4</v>
+      </c>
+      <c r="S12">
+        <v>1.3</v>
+      </c>
+      <c r="T12">
+        <v>2.8</v>
+      </c>
+      <c r="U12">
+        <f>AVERAGE(I12:T12)</f>
+        <v>6.6166666666666671</v>
+      </c>
+      <c r="V12" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.62216624685138544</v>
+      </c>
+      <c r="W12" s="17"/>
+      <c r="X12" s="1">
+        <v>44410</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="1">
+        <v>44408</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>44441</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="2"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44418</v>
       </c>
@@ -1504,40 +2215,90 @@
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>44417</v>
-      </c>
-      <c r="E13" s="2">
-        <v>6.34</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="13">
-        <v>43922</v>
-      </c>
-      <c r="I13" s="5">
-        <v>22.73794564833473</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="17">
-        <v>817.48073896599965</v>
-      </c>
-      <c r="N13" s="17">
-        <v>599.00267020465969</v>
-      </c>
-      <c r="O13" s="16">
-        <f>_xlfn.T.TEST(M13:M16,N13:N16,1,2)</f>
-        <v>0.42555720579683842</v>
-      </c>
-      <c r="P13" s="22">
-        <f>(M17-N17)/N17</f>
-        <v>0.15588487782729762</v>
-      </c>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+        <v>44416</v>
+      </c>
+      <c r="E13">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13">
+        <v>4.3</v>
+      </c>
+      <c r="I13">
+        <v>1.3</v>
+      </c>
+      <c r="J13">
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="K13">
+        <v>3.6</v>
+      </c>
+      <c r="L13">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>2.4</v>
+      </c>
+      <c r="O13">
+        <v>0.8</v>
+      </c>
+      <c r="P13">
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="Q13">
+        <v>0.4</v>
+      </c>
+      <c r="R13">
+        <v>1.6</v>
+      </c>
+      <c r="S13">
+        <v>1.5</v>
+      </c>
+      <c r="T13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U13">
+        <f>AVERAGE(I13:T13)</f>
+        <v>2.0750000000000006</v>
+      </c>
+      <c r="V13" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0722891566265054</v>
+      </c>
+      <c r="W13" s="17"/>
+      <c r="X13" s="1">
+        <v>44414</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="1">
+        <v>44412</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>47.42</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>44442</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI13">
+        <f>SUM(AI3:AI12)</f>
+        <v>83.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44420</v>
       </c>
@@ -1545,34 +2306,54 @@
         <v>39.79</v>
       </c>
       <c r="D14" s="1">
-        <v>44454</v>
-      </c>
-      <c r="E14">
-        <v>0.1</v>
+        <v>44417</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6.34</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="13">
-        <v>43952</v>
-      </c>
-      <c r="I14" s="5">
-        <v>174.22952140604698</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="17">
-        <v>519.89576649499998</v>
-      </c>
-      <c r="N14" s="17">
-        <v>384.92218222893007</v>
-      </c>
-      <c r="O14" s="16"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="5"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="1">
+        <v>44418</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="1">
+        <v>44416</v>
+      </c>
+      <c r="AB14">
+        <v>0.2</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>44443</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI14">
+        <f>AVERAGE(AI3:AI12)</f>
+        <v>10.397500000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44421</v>
       </c>
@@ -1580,34 +2361,99 @@
         <v>2.5</v>
       </c>
       <c r="D15" s="1">
-        <v>44455</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="13">
-        <v>43983</v>
-      </c>
-      <c r="I15" s="5">
-        <v>396.73523734109381</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="17">
-        <v>30.854619134000004</v>
-      </c>
-      <c r="N15" s="17">
-        <v>193.57014313093526</v>
-      </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="5"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+        <v>44454</v>
+      </c>
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15">
+        <f>SUM(H8:H13)</f>
+        <v>326.59999999999997</v>
+      </c>
+      <c r="I15">
+        <f>SUM(I8:I13)</f>
+        <v>351.40000000000009</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:T15" si="2">SUM(J8:J13)</f>
+        <v>411.79999999999995</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>298.90000000000003</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>302.8</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>237.39999999999998</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>264.49999999999994</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>192.89999999999998</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>398.6</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>329.8</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>189.5</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>249.6</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="2"/>
+        <v>247.30000000000004</v>
+      </c>
+      <c r="U15">
+        <f>SUM(U8:U13)</f>
+        <v>289.54166666666663</v>
+      </c>
+      <c r="W15" s="17"/>
+      <c r="X15" s="1">
+        <v>44420</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>39.79</v>
+      </c>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="1">
+        <v>44417</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>6.34</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>44444</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>17.32</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI15">
+        <f>_xlfn.T.TEST(AF3:AF32,AI3:AI10,1,2)</f>
+        <v>0.22933015465276618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44432</v>
       </c>
@@ -1615,34 +2461,93 @@
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>44456</v>
-      </c>
-      <c r="E16">
-        <v>1.2</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="13">
-        <v>44013</v>
-      </c>
-      <c r="I16" s="5">
-        <v>349.1463007210001</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="17">
-        <v>0.29861830300000003</v>
-      </c>
-      <c r="N16" s="17">
-        <v>6.4721703269501747</v>
-      </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="5"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>44455</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4">
+        <f>AVERAGE(H8:H13)</f>
+        <v>54.43333333333333</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" ref="I16:T16" si="3">AVERAGE(I8:I13)</f>
+        <v>58.566666666666684</v>
+      </c>
+      <c r="J16" s="4">
+        <f>AVERAGE(J8:J13)</f>
+        <v>68.633333333333326</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="3"/>
+        <v>49.81666666666667</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="3"/>
+        <v>50.466666666666669</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="3"/>
+        <v>39.566666666666663</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="3"/>
+        <v>44.083333333333321</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="3"/>
+        <v>32.15</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="3"/>
+        <v>66.433333333333337</v>
+      </c>
+      <c r="Q16" s="4">
+        <f t="shared" si="3"/>
+        <v>54.966666666666669</v>
+      </c>
+      <c r="R16" s="4">
+        <f t="shared" si="3"/>
+        <v>31.583333333333332</v>
+      </c>
+      <c r="S16" s="4">
+        <f t="shared" si="3"/>
+        <v>41.6</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="3"/>
+        <v>41.216666666666676</v>
+      </c>
+      <c r="U16" s="4">
+        <f>AVERAGE(U8:U13)</f>
+        <v>48.256944444444436</v>
+      </c>
+      <c r="W16" s="17"/>
+      <c r="X16" s="1">
+        <v>44421</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="Z16" s="5"/>
+      <c r="AA16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16">
+        <f>SUM(AB3:AB15)</f>
+        <v>129.12</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>44445</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44433</v>
       </c>
@@ -1650,38 +2555,90 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>44457</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="13">
-        <v>44044</v>
-      </c>
-      <c r="I17" s="5">
-        <v>817.48073896599965</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="L17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="18">
-        <f>SUM(M13:M16)</f>
-        <v>1368.5297428979995</v>
-      </c>
-      <c r="N17" s="18">
-        <f>SUM(N13:N16)</f>
-        <v>1183.9671658914751</v>
-      </c>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>44456</v>
+      </c>
+      <c r="E17">
+        <v>1.2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="6">
+        <f>(H16-I16)/I16</f>
+        <v>-7.0574843483210345E-2</v>
+      </c>
+      <c r="J17" s="6">
+        <f>(H16-J16)/J16</f>
+        <v>-0.2068965517241379</v>
+      </c>
+      <c r="K17" s="6">
+        <f>(H16-K16)/K16</f>
+        <v>9.2673134827701439E-2</v>
+      </c>
+      <c r="L17" s="6">
+        <f>(H16-L16)/L16</f>
+        <v>7.8599735799207288E-2</v>
+      </c>
+      <c r="M17" s="6">
+        <f>(H16-M16)/M16</f>
+        <v>0.37573715248525702</v>
+      </c>
+      <c r="N17" s="6">
+        <f>(H16-N16)/N16</f>
+        <v>0.23478260869565243</v>
+      </c>
+      <c r="O17" s="6">
+        <f>(H16-O16)/O16</f>
+        <v>0.69310523587350958</v>
+      </c>
+      <c r="P17" s="6">
+        <f>(H16-P16)/P16</f>
+        <v>-0.18063221274460622</v>
+      </c>
+      <c r="Q17" s="6">
+        <f>(H16-Q16)/Q16</f>
+        <v>-9.7028502122499423E-3</v>
+      </c>
+      <c r="R17" s="6">
+        <f>(H16-R16)/R16</f>
+        <v>0.7234828496042216</v>
+      </c>
+      <c r="S17" s="6">
+        <f>(H16-S16)/S16</f>
+        <v>0.30849358974358965</v>
+      </c>
+      <c r="T17" s="6">
+        <f>(H16-T16)/T16</f>
+        <v>0.32066316215123297</v>
+      </c>
+      <c r="U17" s="6">
+        <f>(H16-U16)/U16</f>
+        <v>0.12798963879694933</v>
+      </c>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y17" s="16">
+        <f>SUM(Y3:Y16)</f>
+        <v>176.73000000000002</v>
+      </c>
+      <c r="Z17" s="5"/>
+      <c r="AA17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB17">
+        <f>AVERAGE(AB3:AB15)</f>
+        <v>9.9323076923076918</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>44446</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44434</v>
       </c>
@@ -1689,31 +2646,79 @@
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>44458</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="13">
-        <v>44075</v>
-      </c>
-      <c r="I18" s="5">
-        <v>519.89576649499998</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="5"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+        <v>44457</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4">
+        <f>_xlfn.T.TEST(H8:H13,I2:I13,1,2)</f>
+        <v>0.41954467690162789</v>
+      </c>
+      <c r="J18" s="4">
+        <f>_xlfn.T.TEST(H8:H13,J2:J13,1,2)</f>
+        <v>0.34382721020239526</v>
+      </c>
+      <c r="K18" s="4">
+        <f>_xlfn.T.TEST(H8:H13,K2:K13,1,2)</f>
+        <v>0.2742765426080338</v>
+      </c>
+      <c r="L18" s="4">
+        <f>_xlfn.T.TEST(H8:H13,L2:L13,1,2)</f>
+        <v>0.30477321067226049</v>
+      </c>
+      <c r="M18" s="4">
+        <f>_xlfn.T.TEST(H8:H13,M2:M13,1,2)</f>
+        <v>0.18737155189995625</v>
+      </c>
+      <c r="N18" s="4">
+        <f>_xlfn.T.TEST(H8:H13,N2:N13,1,2)</f>
+        <v>0.28688525943558552</v>
+      </c>
+      <c r="O18" s="4">
+        <f>_xlfn.T.TEST(H8:H13,O2:O13,1,2)</f>
+        <v>8.4351666621129542E-2</v>
+      </c>
+      <c r="P18" s="4">
+        <f>_xlfn.T.TEST(H8:H13,P2:P13,1,2)</f>
+        <v>0.43411653860141908</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>_xlfn.T.TEST(H8:H13,Q2:Q13,1,2)</f>
+        <v>0.28390868152879534</v>
+      </c>
+      <c r="R18" s="4">
+        <f>_xlfn.T.TEST(H8:H13,R2:R13,1,2)</f>
+        <v>0.14129974815887086</v>
+      </c>
+      <c r="S18" s="4">
+        <f>_xlfn.T.TEST(H8:H13,S2:S13,1,2)</f>
+        <v>0.13570682484594601</v>
+      </c>
+      <c r="T18" s="4">
+        <f>_xlfn.T.TEST(H8:H13,T2:T13,1,2)</f>
+        <v>0.15611844945820885</v>
+      </c>
+      <c r="U18">
+        <f>_xlfn.T.TEST(H8:H13,U8:U13,1,2)</f>
+        <v>0.41861413226192312</v>
+      </c>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="5"/>
+      <c r="AE18" s="1">
+        <v>44447</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>62.43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44435</v>
       </c>
@@ -1721,31 +2726,44 @@
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>44459</v>
-      </c>
-      <c r="E19" s="2">
+        <v>44458</v>
+      </c>
+      <c r="E19">
         <v>0</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="13">
-        <v>44105</v>
-      </c>
-      <c r="I19" s="5">
-        <v>30.854619134000004</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="5"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB19">
+        <f>_xlfn.T.TEST(Y3:Y16,AB3:AB15,1,2)</f>
+        <v>0.37429460651155899</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>44448</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>35.53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44436</v>
       </c>
@@ -1753,31 +2771,83 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="E20" s="2">
-        <v>73.95</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="13">
-        <v>44136</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0.29861830300000003</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="5"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20">
+        <f>SUM(H2:H13)</f>
+        <v>463.79999999999995</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20:T20" si="4">SUM(I2:I13)</f>
+        <v>588.5</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>514.49999999999989</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>480.5</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>506.8</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>418.8</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>490.39999999999992</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>302.59999999999997</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>592.79999999999995</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>479.59999999999997</v>
+      </c>
+      <c r="R20">
+        <f>SUM(R2:R13)</f>
+        <v>372</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>368.3</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="4"/>
+        <v>390.60000000000008</v>
+      </c>
+      <c r="U20">
+        <f>SUM(U2:U13)</f>
+        <v>458.7833333333333</v>
+      </c>
+      <c r="V20" s="23"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="5"/>
+      <c r="AE20" s="1">
+        <v>44449</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44437</v>
       </c>
@@ -1785,27 +2855,80 @@
         <v>231.92</v>
       </c>
       <c r="D21" s="1">
-        <v>44461</v>
+        <v>44460</v>
       </c>
       <c r="E21" s="2">
-        <v>7.93</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="5"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>73.95</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6">
+        <f>(H20-I20)/I20</f>
+        <v>-0.21189464740866618</v>
+      </c>
+      <c r="J21" s="6">
+        <f>(H20-J20)/J20</f>
+        <v>-9.8542274052478021E-2</v>
+      </c>
+      <c r="K21" s="6">
+        <f>(H20-K20)/K20</f>
+        <v>-3.4755463059313312E-2</v>
+      </c>
+      <c r="L21" s="6">
+        <f>(H20-L20)/L20</f>
+        <v>-8.4846093133386064E-2</v>
+      </c>
+      <c r="M21" s="6">
+        <f>(H20-M20)/M20</f>
+        <v>0.10744985673352421</v>
+      </c>
+      <c r="N21" s="6">
+        <f>(H20-N20)/N20</f>
+        <v>-5.4241435562805813E-2</v>
+      </c>
+      <c r="O21" s="6">
+        <f>(H20-O20)/O20</f>
+        <v>0.53271645736946471</v>
+      </c>
+      <c r="P21" s="6">
+        <f>(H20-P20)/P20</f>
+        <v>-0.21761133603238869</v>
+      </c>
+      <c r="Q21" s="6">
+        <f>(H20-O20)/O20</f>
+        <v>0.53271645736946471</v>
+      </c>
+      <c r="R21" s="6">
+        <f>(H20-P20)/P20</f>
+        <v>-0.21761133603238869</v>
+      </c>
+      <c r="S21" s="6">
+        <f>(H20-S20)/S20</f>
+        <v>0.25929948411620946</v>
+      </c>
+      <c r="T21" s="6">
+        <f>(H20-T20)/T20</f>
+        <v>0.18740399385560641</v>
+      </c>
+      <c r="U21" s="6">
+        <f>(H20-U20)/U20</f>
+        <v>1.0934718639880813E-2</v>
+      </c>
+      <c r="V21" s="23"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="5"/>
+      <c r="AE21" s="1">
+        <v>44450</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44438</v>
       </c>
@@ -1813,133 +2936,172 @@
         <v>16.57</v>
       </c>
       <c r="D22" s="1">
-        <v>44380</v>
+        <v>44461</v>
       </c>
       <c r="E22" s="2">
-        <v>8.3321987750000002</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <v>7.93</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22">
+        <f>_xlfn.T.TEST(H2:H13,I2:I13,1,2)</f>
+        <v>0.29892393635953485</v>
+      </c>
+      <c r="S22" s="17"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="17">
+        <f>_xlfn.T.TEST(H2:H13,U2:U13,1,2)</f>
+        <v>0.49035226530243281</v>
+      </c>
+      <c r="V22" s="23"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AE22" s="1">
+        <v>44451</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44439</v>
       </c>
       <c r="B23" s="2">
         <v>21.37</v>
       </c>
-      <c r="D23" s="1">
-        <v>44392</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S23" s="17"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AE23" s="1">
+        <v>44452</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>76.27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44440</v>
       </c>
       <c r="B24" s="2">
         <v>4.72</v>
       </c>
-      <c r="D24" s="1">
-        <v>44464</v>
-      </c>
-      <c r="E24" s="2">
-        <v>16.677252502999998</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S24" s="17"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AE24" s="1">
+        <v>44453</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>73.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44441</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
       </c>
-      <c r="D25" s="1">
-        <v>44471</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H25" s="1"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AE25" s="1">
+        <v>44462</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44442</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="5"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <f>SUM(E2:E24)</f>
+        <v>212.3</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26" s="17"/>
+      <c r="P26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="R26" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="5"/>
+      <c r="AE26" s="1">
+        <v>44463</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44443</v>
       </c>
@@ -1950,25 +3112,57 @@
         <v>2</v>
       </c>
       <c r="E27" s="2">
-        <f>AVERAGE(E2:E25)</f>
-        <v>8.8173674468695662</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+        <f>AVERAGE(E2:E24)</f>
+        <v>10.109523809523811</v>
+      </c>
+      <c r="H27" s="14">
+        <v>7.1000000000000014</v>
+      </c>
+      <c r="I27" s="14">
+        <v>79.399999999999991</v>
+      </c>
+      <c r="J27" s="14">
+        <f>_xlfn.T.TEST(H27:H33,I27:I32,1,2)</f>
+        <v>0.12381067770206715</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="14">
+        <v>79.399999999999991</v>
+      </c>
+      <c r="M27" s="14">
+        <v>92.25</v>
+      </c>
+      <c r="N27" s="14">
+        <f>_xlfn.T.TEST(L27:L32,M27:M32,1,2)</f>
+        <v>0.41861413226192312</v>
+      </c>
+      <c r="O27" s="17"/>
+      <c r="P27" s="15">
+        <v>326.59999999999997</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>351.40000000000009</v>
+      </c>
+      <c r="R27" s="15">
+        <f>_xlfn.T.TEST(P27:P28,Q27:Q32,1,2)</f>
+        <v>0.3757514607133528</v>
+      </c>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AE27" s="1">
+        <v>44464</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>16.73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44444</v>
       </c>
@@ -1979,25 +3173,48 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <f>_xlfn.T.TEST(B2:B45,E2:E21,1,2)</f>
-        <v>0.14583242228970356</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+        <f>_xlfn.T.TEST(B2:B45,E2:E24,1,2)</f>
+        <v>0.15208575657814238</v>
+      </c>
+      <c r="H28" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="I28" s="14">
+        <v>145.4</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="14">
+        <v>145.4</v>
+      </c>
+      <c r="M28" s="14">
+        <v>94.7</v>
+      </c>
+      <c r="N28" s="14"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="15">
+        <v>326.59999999999997</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>411.79999999999995</v>
+      </c>
+      <c r="R28" s="15"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AE28" s="1">
+        <v>44465</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44445</v>
       </c>
@@ -2009,46 +3226,86 @@
       </c>
       <c r="E29" s="8">
         <f>(B48-E27)/E27</f>
-        <v>1.2784836169961267</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.98725752579968284</v>
+      </c>
+      <c r="H29" s="14">
+        <v>8.9</v>
+      </c>
+      <c r="I29" s="14">
+        <v>83.09999999999998</v>
+      </c>
+      <c r="J29" s="14"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="14">
+        <v>83.09999999999998</v>
+      </c>
+      <c r="M29" s="14">
+        <v>69.716666666666654</v>
+      </c>
+      <c r="N29" s="14"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="14">
+        <v>298.90000000000003</v>
+      </c>
+      <c r="R29" s="15"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AE29" s="1">
+        <v>44466</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>8.1199999999999992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44446</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H30" s="14">
+        <v>14</v>
+      </c>
+      <c r="I30" s="14">
+        <v>11.9</v>
+      </c>
+      <c r="J30" s="14"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="14">
+        <v>11.9</v>
+      </c>
+      <c r="M30" s="14">
+        <v>24.183333333333334</v>
+      </c>
+      <c r="N30" s="14"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15">
+        <v>302.8</v>
+      </c>
+      <c r="R30" s="15"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="4"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AE30" s="1">
+        <v>44467</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44447</v>
       </c>
@@ -2056,22 +3313,41 @@
         <v>62.43</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H31" s="14">
+        <v>37.1</v>
+      </c>
+      <c r="I31" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="M31" s="14">
+        <v>6.6166666666666671</v>
+      </c>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15">
+        <v>237.39999999999998</v>
+      </c>
+      <c r="R31" s="15"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="4"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AE31" s="1">
+        <v>44468</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44448</v>
       </c>
@@ -2079,22 +3355,41 @@
         <v>35.53</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
+      <c r="H32" s="14">
+        <v>67.2</v>
+      </c>
+      <c r="I32" s="14">
+        <v>4.3</v>
+      </c>
+      <c r="J32" s="14"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="14">
+        <v>4.3</v>
+      </c>
+      <c r="M32" s="14">
+        <v>2.0750000000000006</v>
+      </c>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15">
+        <v>264.49999999999994</v>
+      </c>
+      <c r="R32" s="14"/>
+      <c r="S32" s="17"/>
       <c r="T32" s="4"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="4"/>
+      <c r="AE32" s="1">
+        <v>44469</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>50.71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44449</v>
       </c>
@@ -2102,21 +3397,33 @@
         <v>0</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H33" s="15"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15">
+        <v>192.89999999999998</v>
+      </c>
+      <c r="R33" s="15"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="4"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AE33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF33">
+        <f>SUM(AF3:AF32)</f>
+        <v>707.24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44450</v>
       </c>
@@ -2124,8 +3431,30 @@
         <v>0.2</v>
       </c>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H34" s="1"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15">
+        <v>398.6</v>
+      </c>
+      <c r="R34" s="15"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="4"/>
+      <c r="AE34" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF34">
+        <f>AVERAGE(AF3:AF32)</f>
+        <v>23.574666666666666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44451</v>
       </c>
@@ -2133,8 +3462,23 @@
         <v>0</v>
       </c>
       <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H35" s="1"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15">
+        <v>329.8</v>
+      </c>
+      <c r="R35" s="15"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44452</v>
       </c>
@@ -2142,8 +3486,23 @@
         <v>76.27</v>
       </c>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H36" s="1"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15">
+        <v>189.5</v>
+      </c>
+      <c r="R36" s="15"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44453</v>
       </c>
@@ -2151,26 +3510,32 @@
         <v>73.95</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="V37" s="6"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15">
+        <v>249.6</v>
+      </c>
+      <c r="R37" s="15"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44462</v>
       </c>
@@ -2178,19 +3543,29 @@
         <v>0</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="I38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15">
+        <v>247.30000000000004</v>
+      </c>
+      <c r="R38" s="15"/>
+      <c r="S38" s="4"/>
       <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44463</v>
       </c>
@@ -2198,8 +3573,20 @@
         <v>0</v>
       </c>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H39" s="1"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44464</v>
       </c>
@@ -2207,8 +3594,20 @@
         <v>16.73</v>
       </c>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H40" s="1"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44465</v>
       </c>
@@ -2217,7 +3616,7 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44466</v>
       </c>
@@ -2226,7 +3625,7 @@
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44467</v>
       </c>
@@ -2235,7 +3634,7 @@
       </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44468</v>
       </c>
@@ -2244,7 +3643,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44469</v>
       </c>
@@ -2253,15 +3652,21 @@
       </c>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2">
+        <f>SUM(B2:B45)</f>
+        <v>883.97</v>
+      </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
@@ -2270,227 +3675,104 @@
         <v>20.090227272727272</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="G54" s="1"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="4"/>
-      <c r="P54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="4"/>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="4"/>
+    </row>
+    <row r="55" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="W55" s="4"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+    </row>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="G57" s="1"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-    </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="G58" s="1"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="G59" s="1"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="G60" s="1"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-    </row>
-    <row r="61" spans="2:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G61" s="1"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="4"/>
-    </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="G62" s="1"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-    </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="G63" s="1"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-    </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="G64" s="1"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-    </row>
-    <row r="65" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G65" s="1"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+    </row>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+    </row>
+    <row r="58" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="W58" s="4"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+    </row>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+    </row>
+    <row r="61" spans="2:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="4"/>
+    </row>
+    <row r="62" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="W62" s="5"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+    </row>
+    <row r="64" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+    </row>
+    <row r="65" spans="23:26" x14ac:dyDescent="0.3">
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="X1:AB2"/>
+    <mergeCell ref="AE1:AI2"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Location_based_analysis/OnOff_Ttest/wsl.xlsx
+++ b/Location_based_analysis/OnOff_Ttest/wsl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rainfall\Location_based_analysis\OnOff_Ttest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491142A1-F566-44D4-B159-EF3907C0AEB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F04E73-3DF9-41CF-B571-3C271B5F9848}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>ON</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -175,6 +175,14 @@
   </si>
   <si>
     <t>T-test</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>before_1</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>before_2</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -843,15 +851,15 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1176,27 +1184,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="21" max="21" width="9.33203125" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" style="24"/>
+    <col min="22" max="22" width="8.6640625" style="22"/>
     <col min="29" max="29" width="9" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="D1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="21"/>
+      <c r="E1" s="24"/>
       <c r="G1" s="3" t="s">
         <v>30</v>
       </c>
@@ -1242,26 +1250,26 @@
       <c r="U1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="23" t="s">
         <v>37</v>
       </c>
       <c r="W1" s="12"/>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
       <c r="AC1" s="10"/>
       <c r="AD1" s="10"/>
-      <c r="AE1" s="22" t="s">
+      <c r="AE1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -1322,20 +1330,20 @@
         <f>AVERAGE(I2:T2)</f>
         <v>2.1833333333333331</v>
       </c>
-      <c r="V2" s="25"/>
+      <c r="V2" s="23"/>
       <c r="W2" s="10"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
       <c r="AC2" s="11"/>
       <c r="AD2" s="10"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -1393,7 +1401,7 @@
         <v>1.9</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U12" si="0">AVERAGE(I3:T3)</f>
+        <f t="shared" ref="U3:U11" si="0">AVERAGE(I3:T3)</f>
         <v>5.4333333333333336</v>
       </c>
       <c r="V3" s="6"/>
@@ -2005,7 +2013,7 @@
         <v>69.716666666666654</v>
       </c>
       <c r="V10" s="6">
-        <f t="shared" ref="V9:V13" si="1">(H10-U10)/U10</f>
+        <f t="shared" ref="V10:V13" si="1">(H10-U10)/U10</f>
         <v>0.19196748744919906</v>
       </c>
       <c r="W10" s="17"/>
@@ -2835,7 +2843,7 @@
         <f>SUM(U2:U13)</f>
         <v>458.7833333333333</v>
       </c>
-      <c r="V20" s="23"/>
+      <c r="V20" s="21"/>
       <c r="W20" s="16"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="16"/>
@@ -2916,7 +2924,7 @@
         <f>(H20-U20)/U20</f>
         <v>1.0934718639880813E-2</v>
       </c>
-      <c r="V21" s="23"/>
+      <c r="V21" s="21"/>
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
       <c r="Y21" s="16"/>
@@ -2954,7 +2962,7 @@
         <f>_xlfn.T.TEST(H2:H13,U2:U13,1,2)</f>
         <v>0.49035226530243281</v>
       </c>
-      <c r="V22" s="23"/>
+      <c r="V22" s="21"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
@@ -2976,7 +2984,7 @@
       <c r="S23" s="17"/>
       <c r="T23" s="10"/>
       <c r="U23" s="17"/>
-      <c r="V23" s="23"/>
+      <c r="V23" s="21"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
@@ -2998,7 +3006,7 @@
       <c r="S24" s="17"/>
       <c r="T24" s="10"/>
       <c r="U24" s="17"/>
-      <c r="V24" s="23"/>
+      <c r="V24" s="21"/>
       <c r="W24" s="4"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
@@ -3031,7 +3039,7 @@
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
       <c r="U25" s="17"/>
-      <c r="V25" s="23"/>
+      <c r="V25" s="21"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
@@ -3089,7 +3097,7 @@
       <c r="S26" s="17"/>
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
-      <c r="V26" s="23"/>
+      <c r="V26" s="21"/>
       <c r="W26" s="5"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
@@ -3150,7 +3158,7 @@
       <c r="S27" s="17"/>
       <c r="T27" s="17"/>
       <c r="U27" s="10"/>
-      <c r="V27" s="23"/>
+      <c r="V27" s="21"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
@@ -3202,7 +3210,7 @@
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
       <c r="U28" s="10"/>
-      <c r="V28" s="23"/>
+      <c r="V28" s="21"/>
       <c r="W28" s="5"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="5"/>
@@ -3252,7 +3260,7 @@
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
       <c r="U29" s="10"/>
-      <c r="V29" s="23"/>
+      <c r="V29" s="21"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
@@ -3431,8 +3439,14 @@
         <v>0.2</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="4"/>
+      <c r="H34" s="22">
+        <f>AVERAGE(H27:H32)</f>
+        <v>22.866666666666664</v>
+      </c>
+      <c r="I34" s="4">
+        <f>AVERAGE(I27:I32)</f>
+        <v>54.43333333333333</v>
+      </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="17"/>
@@ -3463,7 +3477,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="4"/>
+      <c r="I35" s="4">
+        <f>(I34-H34)/H34</f>
+        <v>1.3804664723032072</v>
+      </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -3603,7 +3620,10 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
+      <c r="Q40" s="4">
+        <f>AVERAGE(Q27:Q38)</f>
+        <v>289.54166666666669</v>
+      </c>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
     </row>
@@ -3615,6 +3635,17 @@
         <v>0</v>
       </c>
       <c r="E41" s="2"/>
+      <c r="H41" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J41" s="14"/>
+      <c r="Q41">
+        <f>(P28-Q40)/Q40</f>
+        <v>0.12798963879694902</v>
+      </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
@@ -3624,6 +3655,13 @@
         <v>8.1199999999999992</v>
       </c>
       <c r="E42" s="2"/>
+      <c r="H42" s="14">
+        <v>2.1833333333333331</v>
+      </c>
+      <c r="I42" s="14">
+        <v>92.25</v>
+      </c>
+      <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -3633,6 +3671,13 @@
         <v>90.3</v>
       </c>
       <c r="E43" s="2"/>
+      <c r="H43" s="14">
+        <v>5.4333333333333336</v>
+      </c>
+      <c r="I43" s="14">
+        <v>94.7</v>
+      </c>
+      <c r="J43" s="14"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -3642,6 +3687,13 @@
         <v>0</v>
       </c>
       <c r="E44" s="2"/>
+      <c r="H44" s="14">
+        <v>9.2833333333333332</v>
+      </c>
+      <c r="I44" s="14">
+        <v>69.716666666666654</v>
+      </c>
+      <c r="J44" s="14"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -3651,10 +3703,24 @@
         <v>50.71</v>
       </c>
       <c r="E45" s="2"/>
+      <c r="H45" s="14">
+        <v>21.883333333333336</v>
+      </c>
+      <c r="I45" s="14">
+        <v>24.183333333333334</v>
+      </c>
+      <c r="J45" s="14"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="E46" s="2"/>
+      <c r="H46" s="14">
+        <v>40.791666666666671</v>
+      </c>
+      <c r="I46" s="14">
+        <v>6.6166666666666671</v>
+      </c>
+      <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -3665,6 +3731,13 @@
         <v>883.97</v>
       </c>
       <c r="E47" s="2"/>
+      <c r="H47" s="14">
+        <v>89.666666666666671</v>
+      </c>
+      <c r="I47" s="14">
+        <v>2.0750000000000006</v>
+      </c>
+      <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
@@ -3678,10 +3751,22 @@
     <row r="49" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="E49" s="2"/>
+      <c r="H49">
+        <f>AVERAGE(H42:H47)</f>
+        <v>28.206944444444446</v>
+      </c>
+      <c r="I49">
+        <f>AVERAGE(I42:I47)</f>
+        <v>48.256944444444436</v>
+      </c>
     </row>
     <row r="50" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
       <c r="E50" s="2"/>
+      <c r="I50">
+        <f>(I49-H49)/H49</f>
+        <v>0.71081786400118141</v>
+      </c>
     </row>
     <row r="51" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>

--- a/Location_based_analysis/OnOff_Ttest/wsl.xlsx
+++ b/Location_based_analysis/OnOff_Ttest/wsl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rainfall\Location_based_analysis\OnOff_Ttest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F04E73-3DF9-41CF-B571-3C271B5F9848}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56DDE8D-6798-4C4A-AD88-6D20B0035810}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>ON</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -183,6 +183,42 @@
   </si>
   <si>
     <t>before_2</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0001</t>
+  </si>
+  <si>
+    <t>R0002</t>
+  </si>
+  <si>
+    <t>R0003</t>
+  </si>
+  <si>
+    <t>R0004</t>
+  </si>
+  <si>
+    <t>R0005</t>
+  </si>
+  <si>
+    <t>R0006</t>
+  </si>
+  <si>
+    <t>R0007</t>
+  </si>
+  <si>
+    <t>R0008</t>
+  </si>
+  <si>
+    <t>实验组</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>对照组</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -817,7 +853,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -859,6 +895,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1182,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI65"/>
+  <dimension ref="A1:AW65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView tabSelected="1" topLeftCell="AE34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF50" sqref="AF50:AM50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1194,9 +1233,10 @@
     <col min="22" max="22" width="8.6640625" style="22"/>
     <col min="29" max="29" width="9" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1264,14 +1304,29 @@
       <c r="AC1" s="10"/>
       <c r="AD1" s="10"/>
       <c r="AE1" s="25" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AF1" s="25"/>
       <c r="AG1" s="25"/>
       <c r="AH1" s="25"/>
       <c r="AI1" s="25"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AO1" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>192</v>
       </c>
@@ -1339,13 +1394,56 @@
       <c r="AB2" s="25"/>
       <c r="AC2" s="11"/>
       <c r="AD2" s="10"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AF2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44388</v>
       </c>
@@ -1418,20 +1516,62 @@
       <c r="AB3" s="2">
         <v>34.51</v>
       </c>
-      <c r="AE3" s="1">
-        <v>44432</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>44454</v>
-      </c>
-      <c r="AI3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AE3" s="26">
+        <v>44022</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>0.12642669000000001</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>0.104272266</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>0.12720848100000001</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>0.12857142899999999</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="26">
+        <v>44013</v>
+      </c>
+      <c r="AP3" s="4">
+        <v>5.2598208130000002</v>
+      </c>
+      <c r="AQ3" s="4">
+        <v>4.0886426589999996</v>
+      </c>
+      <c r="AR3" s="4">
+        <v>4.2179836509999999</v>
+      </c>
+      <c r="AS3" s="4">
+        <v>4.288088643</v>
+      </c>
+      <c r="AT3" s="4">
+        <v>3.9696760850000001</v>
+      </c>
+      <c r="AU3" s="4">
+        <v>4.3726708070000004</v>
+      </c>
+      <c r="AV3" s="4">
+        <v>4.3666436940000004</v>
+      </c>
+      <c r="AW3" s="4">
+        <v>4.0886426589999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44393</v>
       </c>
@@ -1504,20 +1644,62 @@
       <c r="AB4">
         <v>0</v>
       </c>
-      <c r="AE4" s="1">
-        <v>44433</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>44455</v>
-      </c>
-      <c r="AI4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AE4" s="26">
+        <v>44023</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>3.6193895870000001</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>3.2638259289999998</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>2.6036161340000001</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>2.573617021</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>3.3768844219999998</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>3.3103448279999999</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>5</v>
+      </c>
+      <c r="AO4" s="26">
+        <v>44024</v>
+      </c>
+      <c r="AP4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44398</v>
       </c>
@@ -1590,20 +1772,62 @@
       <c r="AB5" s="2">
         <v>32.96</v>
       </c>
-      <c r="AE5" s="1">
-        <v>44434</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>44456</v>
-      </c>
-      <c r="AI5">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AE5" s="26">
+        <v>44028</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>1.7863542379999999</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>2.6887966799999998</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>2.0234192040000001</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>1.79253112</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>1.092413793</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>1.8881987579999999</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>1.4886285319999999</v>
+      </c>
+      <c r="AM5" s="4">
+        <v>2.8859709740000001</v>
+      </c>
+      <c r="AO5" s="26">
+        <v>44025</v>
+      </c>
+      <c r="AP5" s="4">
+        <v>4.0717241380000004</v>
+      </c>
+      <c r="AQ5" s="4">
+        <v>5.3520336610000001</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>4.0239520960000004</v>
+      </c>
+      <c r="AS5" s="4">
+        <v>4.2352941179999997</v>
+      </c>
+      <c r="AT5" s="4">
+        <v>2.6813793100000001</v>
+      </c>
+      <c r="AU5" s="4">
+        <v>4.0773480659999999</v>
+      </c>
+      <c r="AV5" s="4">
+        <v>3.3742246730000001</v>
+      </c>
+      <c r="AW5" s="4">
+        <v>4.8796680500000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44400</v>
       </c>
@@ -1675,20 +1899,62 @@
       <c r="AB6">
         <v>0</v>
       </c>
-      <c r="AE6" s="1">
-        <v>44435</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>44457</v>
-      </c>
-      <c r="AI6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AE6" s="26">
+        <v>44033</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="26">
+        <v>44026</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44402</v>
       </c>
@@ -1760,20 +2026,62 @@
       <c r="AB7" s="2">
         <v>0</v>
       </c>
-      <c r="AE7" s="1">
-        <v>44436</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>44458</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AE7" s="26">
+        <v>44035</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>11.214334940000001</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>13.390700900000001</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>11.44809461</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>10.80750521</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>9.4475138120000004</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>10.84727021</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>9.0372413789999992</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>13.18169209</v>
+      </c>
+      <c r="AO7" s="26">
+        <v>44027</v>
+      </c>
+      <c r="AP7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44403</v>
       </c>
@@ -1850,20 +2158,62 @@
       <c r="AB8">
         <v>0</v>
       </c>
-      <c r="AE8" s="1">
-        <v>44437</v>
-      </c>
-      <c r="AF8" s="2">
-        <v>231.92</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>44459</v>
-      </c>
-      <c r="AI8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AE8" s="26">
+        <v>44037</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>0.18652849699999999</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>0.19862068999999999</v>
+      </c>
+      <c r="AM8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="26">
+        <v>44031</v>
+      </c>
+      <c r="AP8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44406</v>
       </c>
@@ -1940,20 +2290,62 @@
       <c r="AB9">
         <v>0</v>
       </c>
-      <c r="AE9" s="1">
-        <v>44438</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>16.57</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>44460</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>73.95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AE9" s="26">
+        <v>44038</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="26">
+        <v>44032</v>
+      </c>
+      <c r="AP9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44409</v>
       </c>
@@ -2030,20 +2422,62 @@
       <c r="AB10" s="2">
         <v>7.69</v>
       </c>
-      <c r="AE10" s="1">
-        <v>44439</v>
-      </c>
-      <c r="AF10" s="2">
-        <v>21.37</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>44461</v>
-      </c>
-      <c r="AI10" s="2">
-        <v>7.93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AE10" s="26">
+        <v>44041</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="26">
+        <v>44036</v>
+      </c>
+      <c r="AP10" s="4">
+        <v>0.596685083</v>
+      </c>
+      <c r="AQ10" s="4">
+        <v>2.3107221010000001</v>
+      </c>
+      <c r="AR10" s="4">
+        <v>0.472440945</v>
+      </c>
+      <c r="AS10" s="4">
+        <v>0.31349782300000001</v>
+      </c>
+      <c r="AT10" s="4">
+        <v>9.9241902000000007E-2</v>
+      </c>
+      <c r="AU10" s="4">
+        <v>0.49689441000000001</v>
+      </c>
+      <c r="AV10" s="4">
+        <v>0.19862068999999999</v>
+      </c>
+      <c r="AW10" s="4">
+        <v>3.1191335740000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44410</v>
       </c>
@@ -2120,16 +2554,62 @@
       <c r="AB11">
         <v>0</v>
       </c>
-      <c r="AE11" s="1">
-        <v>44440</v>
-      </c>
-      <c r="AF11" s="2">
-        <v>4.72</v>
-      </c>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="2"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AE11" s="26">
+        <v>44044</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>0.18860510799999999</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>0.29793103399999998</v>
+      </c>
+      <c r="AM11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="26">
+        <v>44040</v>
+      </c>
+      <c r="AP11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44414</v>
       </c>
@@ -2206,16 +2686,62 @@
       <c r="AB12">
         <v>0</v>
       </c>
-      <c r="AE12" s="1">
-        <v>44441</v>
-      </c>
-      <c r="AF12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="2"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AE12" s="26">
+        <v>44045</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="26">
+        <v>44043</v>
+      </c>
+      <c r="AP12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44418</v>
       </c>
@@ -2292,21 +2818,62 @@
       <c r="AB13" s="2">
         <v>47.42</v>
       </c>
-      <c r="AE13" s="1">
-        <v>44442</v>
-      </c>
-      <c r="AF13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI13">
-        <f>SUM(AI3:AI12)</f>
-        <v>83.18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AE13" s="26">
+        <v>44049</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>9.9173553999999997E-2</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>0.19930795800000001</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>9.9722991999999996E-2</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>0.19862068999999999</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="4">
+        <v>9.9310344999999994E-2</v>
+      </c>
+      <c r="AM13" s="4">
+        <v>9.9585062000000002E-2</v>
+      </c>
+      <c r="AO13" s="26">
+        <v>44047</v>
+      </c>
+      <c r="AP13" s="4">
+        <v>8.1434482760000009</v>
+      </c>
+      <c r="AQ13" s="4">
+        <v>6.8808864270000001</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>3.6802096990000002</v>
+      </c>
+      <c r="AS13" s="4">
+        <v>6.7905686550000004</v>
+      </c>
+      <c r="AT13" s="4">
+        <v>3.8731034480000002</v>
+      </c>
+      <c r="AU13" s="4">
+        <v>8.2541436459999993</v>
+      </c>
+      <c r="AV13" s="4">
+        <v>3.2772413789999999</v>
+      </c>
+      <c r="AW13" s="4">
+        <v>6.975778547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44420</v>
       </c>
@@ -2347,21 +2914,62 @@
       <c r="AB14">
         <v>0.2</v>
       </c>
-      <c r="AE14" s="1">
-        <v>44443</v>
-      </c>
-      <c r="AF14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI14">
-        <f>AVERAGE(AI3:AI12)</f>
-        <v>10.397500000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AE14" s="26">
+        <v>44053</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="26">
+        <v>44051</v>
+      </c>
+      <c r="AP14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="4">
+        <v>0.19807427799999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44421</v>
       </c>
@@ -2447,21 +3055,62 @@
       <c r="AB15" s="2">
         <v>6.34</v>
       </c>
-      <c r="AE15" s="1">
-        <v>44444</v>
-      </c>
-      <c r="AF15" s="2">
-        <v>17.32</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI15">
-        <f>_xlfn.T.TEST(AF3:AF32,AI3:AI10,1,2)</f>
-        <v>0.22933015465276618</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AE15" s="26">
+        <v>44055</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>4.6708074530000001</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>5.488565489</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>4.561085973</v>
+      </c>
+      <c r="AI15" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>5.160578911</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>4.4813278009999999</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>5.160578911</v>
+      </c>
+      <c r="AM15" s="4">
+        <v>5.0929264910000001</v>
+      </c>
+      <c r="AO15" s="26">
+        <v>44052</v>
+      </c>
+      <c r="AP15" s="4">
+        <v>0.69613259699999996</v>
+      </c>
+      <c r="AQ15" s="4">
+        <v>0.99722991699999997</v>
+      </c>
+      <c r="AR15" s="4">
+        <v>0.92248558599999997</v>
+      </c>
+      <c r="AS15" s="4">
+        <v>1.0006949270000001</v>
+      </c>
+      <c r="AT15" s="4">
+        <v>0.29793103399999998</v>
+      </c>
+      <c r="AU15" s="4">
+        <v>1.0946786449999999</v>
+      </c>
+      <c r="AV15" s="4">
+        <v>0.29793103399999998</v>
+      </c>
+      <c r="AW15" s="4">
+        <v>1.29550173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44432</v>
       </c>
@@ -2548,14 +3197,62 @@
         <f>SUM(AB3:AB15)</f>
         <v>129.12</v>
       </c>
-      <c r="AE16" s="1">
-        <v>44445</v>
-      </c>
-      <c r="AF16" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE16" s="26">
+        <v>44056</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>0.49792531099999998</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>9.4302553999999997E-2</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>0.69517241399999996</v>
+      </c>
+      <c r="AK16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>0.79448275899999998</v>
+      </c>
+      <c r="AM16" s="4">
+        <v>0.59709744300000001</v>
+      </c>
+      <c r="AO16" s="26">
+        <v>44089</v>
+      </c>
+      <c r="AP16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="4">
+        <v>9.9585062000000002E-2</v>
+      </c>
+      <c r="AR16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44433</v>
       </c>
@@ -2639,14 +3336,62 @@
         <f>AVERAGE(AB3:AB15)</f>
         <v>9.9323076923076918</v>
       </c>
-      <c r="AE17" s="1">
-        <v>44446</v>
-      </c>
-      <c r="AF17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE17" s="26">
+        <v>44067</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="26">
+        <v>44090</v>
+      </c>
+      <c r="AP17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44434</v>
       </c>
@@ -2719,14 +3464,62 @@
       <c r="X18" s="17"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="5"/>
-      <c r="AE18" s="1">
-        <v>44447</v>
-      </c>
-      <c r="AF18" s="2">
-        <v>62.43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE18" s="26">
+        <v>44068</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="26">
+        <v>44091</v>
+      </c>
+      <c r="AP18" s="4">
+        <v>0.29793103399999998</v>
+      </c>
+      <c r="AQ18" s="4">
+        <v>9.9516240000000006E-2</v>
+      </c>
+      <c r="AR18" s="4">
+        <v>9.8765432E-2</v>
+      </c>
+      <c r="AS18" s="4">
+        <v>9.9585062000000002E-2</v>
+      </c>
+      <c r="AT18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="4">
+        <v>0.19862068999999999</v>
+      </c>
+      <c r="AV18" s="4">
+        <v>9.9241902000000007E-2</v>
+      </c>
+      <c r="AW18" s="4">
+        <v>0.29813664600000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44435</v>
       </c>
@@ -2764,14 +3557,62 @@
         <f>_xlfn.T.TEST(Y3:Y16,AB3:AB15,1,2)</f>
         <v>0.37429460651155899</v>
       </c>
-      <c r="AE19" s="1">
-        <v>44448</v>
-      </c>
-      <c r="AF19" s="2">
-        <v>35.53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE19" s="26">
+        <v>44069</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="26">
+        <v>44092</v>
+      </c>
+      <c r="AP19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44436</v>
       </c>
@@ -2848,14 +3689,62 @@
       <c r="X20" s="10"/>
       <c r="Y20" s="16"/>
       <c r="Z20" s="5"/>
-      <c r="AE20" s="1">
-        <v>44449</v>
-      </c>
-      <c r="AF20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE20" s="26">
+        <v>44070</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="26">
+        <v>44093</v>
+      </c>
+      <c r="AP20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44437</v>
       </c>
@@ -2929,14 +3818,62 @@
       <c r="X21" s="16"/>
       <c r="Y21" s="16"/>
       <c r="Z21" s="5"/>
-      <c r="AE21" s="1">
-        <v>44450</v>
-      </c>
-      <c r="AF21" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE21" s="26">
+        <v>44071</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="26">
+        <v>44094</v>
+      </c>
+      <c r="AP21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44438</v>
       </c>
@@ -2967,14 +3904,62 @@
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
-      <c r="AE22" s="1">
-        <v>44451</v>
-      </c>
-      <c r="AF22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE22" s="26">
+        <v>44072</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>26.813793100000002</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>33.261410789999999</v>
+      </c>
+      <c r="AH22" s="4">
+        <v>28.9168357</v>
+      </c>
+      <c r="AI22" s="4">
+        <v>24.049896050000001</v>
+      </c>
+      <c r="AJ22" s="4">
+        <v>28.50206897</v>
+      </c>
+      <c r="AK22" s="4">
+        <v>25.9378882</v>
+      </c>
+      <c r="AL22" s="4">
+        <v>30.86423156</v>
+      </c>
+      <c r="AM22" s="4">
+        <v>33.284429070000002</v>
+      </c>
+      <c r="AO22" s="26">
+        <v>44095</v>
+      </c>
+      <c r="AP22" s="4">
+        <v>7.1454169539999999</v>
+      </c>
+      <c r="AQ22" s="4">
+        <v>14.9068323</v>
+      </c>
+      <c r="AR22" s="4">
+        <v>9.4344827589999998</v>
+      </c>
+      <c r="AS22" s="4">
+        <v>7.2646855559999999</v>
+      </c>
+      <c r="AT22" s="4">
+        <v>5.9586206900000001</v>
+      </c>
+      <c r="AU22" s="4">
+        <v>7.8509316770000002</v>
+      </c>
+      <c r="AV22" s="4">
+        <v>5.8472126629999996</v>
+      </c>
+      <c r="AW22" s="4">
+        <v>15.492413790000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44439</v>
       </c>
@@ -2986,17 +3971,69 @@
       <c r="U23" s="17"/>
       <c r="V23" s="21"/>
       <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AE23" s="1">
-        <v>44452</v>
-      </c>
-      <c r="AF23" s="2">
-        <v>76.27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X23" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AE23" s="26">
+        <v>44073</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>1.688275862</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>3.5850622410000001</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>1.462423832</v>
+      </c>
+      <c r="AI23" s="4">
+        <v>1.2972972970000001</v>
+      </c>
+      <c r="AJ23" s="4">
+        <v>1.3903448279999999</v>
+      </c>
+      <c r="AK23" s="4">
+        <v>1.591160221</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>1.1917241380000001</v>
+      </c>
+      <c r="AM23" s="4">
+        <v>4.3817427389999999</v>
+      </c>
+      <c r="AO23" s="26">
+        <v>44096</v>
+      </c>
+      <c r="AP23" s="4">
+        <v>0.89379310300000003</v>
+      </c>
+      <c r="AQ23" s="4">
+        <v>1.5933609959999999</v>
+      </c>
+      <c r="AR23" s="4">
+        <v>0.74563106800000001</v>
+      </c>
+      <c r="AS23" s="4">
+        <v>0.59833795000000001</v>
+      </c>
+      <c r="AT23" s="4">
+        <v>0.59504132200000004</v>
+      </c>
+      <c r="AU23" s="4">
+        <v>1.0939226520000001</v>
+      </c>
+      <c r="AV23" s="4">
+        <v>0.49620951099999999</v>
+      </c>
+      <c r="AW23" s="4">
+        <v>1.788819876</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44440</v>
       </c>
@@ -3008,17 +4045,75 @@
       <c r="U24" s="17"/>
       <c r="V24" s="21"/>
       <c r="W24" s="4"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AE24" s="1">
-        <v>44453</v>
-      </c>
-      <c r="AF24" s="2">
-        <v>73.95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AE24" s="26">
+        <v>44074</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>1.290144728</v>
+      </c>
+      <c r="AG24" s="4">
+        <v>2.5838509319999998</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>4.7872340429999998</v>
+      </c>
+      <c r="AI24" s="4">
+        <v>3.5801104970000002</v>
+      </c>
+      <c r="AJ24" s="4">
+        <v>1.8868965520000001</v>
+      </c>
+      <c r="AK24" s="4">
+        <v>1.788819876</v>
+      </c>
+      <c r="AL24" s="4">
+        <v>2.1848275859999999</v>
+      </c>
+      <c r="AM24" s="4">
+        <v>3.0786206900000002</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP24">
+        <f>AVERAGE(AP3:AP23)</f>
+        <v>1.290711999904762</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" ref="AQ24:AW24" si="5">AVERAGE(AQ3:AQ23)</f>
+        <v>1.729943303</v>
+      </c>
+      <c r="AR24">
+        <f t="shared" si="5"/>
+        <v>1.1236167255238096</v>
+      </c>
+      <c r="AS24">
+        <f t="shared" si="5"/>
+        <v>1.1709882254285715</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="5"/>
+        <v>0.83214256147619059</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="5"/>
+        <v>1.3066290758571426</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="5"/>
+        <v>0.85511074028571432</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="5"/>
+        <v>1.8160080547619049</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44441</v>
       </c>
@@ -3041,17 +4136,47 @@
       <c r="U25" s="17"/>
       <c r="V25" s="21"/>
       <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AE25" s="1">
-        <v>44462</v>
-      </c>
-      <c r="AF25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X25" s="1">
+        <v>44432</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>44454</v>
+      </c>
+      <c r="AB25">
+        <v>0.1</v>
+      </c>
+      <c r="AE25" s="26">
+        <v>44075</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>0.69517241399999996</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>0.39834024899999998</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>0.86921529200000003</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>0.69806094200000002</v>
+      </c>
+      <c r="AJ25" s="4">
+        <v>0.19862068999999999</v>
+      </c>
+      <c r="AK25" s="4">
+        <v>0.79558010999999995</v>
+      </c>
+      <c r="AL25" s="4">
+        <v>0.49620951099999999</v>
+      </c>
+      <c r="AM25" s="4">
+        <v>0.49792531099999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44442</v>
       </c>
@@ -3099,17 +4224,47 @@
       <c r="U26" s="17"/>
       <c r="V26" s="21"/>
       <c r="W26" s="5"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="5"/>
-      <c r="AE26" s="1">
-        <v>44463</v>
-      </c>
-      <c r="AF26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X26" s="1">
+        <v>44433</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>44455</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="26">
+        <v>44076</v>
+      </c>
+      <c r="AF26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44443</v>
       </c>
@@ -3160,17 +4315,47 @@
       <c r="U27" s="10"/>
       <c r="V27" s="21"/>
       <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AE27" s="1">
-        <v>44464</v>
-      </c>
-      <c r="AF27" s="2">
-        <v>16.73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X27" s="1">
+        <v>44434</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>44456</v>
+      </c>
+      <c r="AB27">
+        <v>1.2</v>
+      </c>
+      <c r="AE27" s="26">
+        <v>44077</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44444</v>
       </c>
@@ -3212,17 +4397,47 @@
       <c r="U28" s="10"/>
       <c r="V28" s="21"/>
       <c r="W28" s="5"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AE28" s="1">
-        <v>44465</v>
-      </c>
-      <c r="AF28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X28" s="1">
+        <v>44435</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>44457</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="26">
+        <v>44078</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44445</v>
       </c>
@@ -3262,17 +4477,47 @@
       <c r="U29" s="10"/>
       <c r="V29" s="21"/>
       <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AE29" s="1">
-        <v>44466</v>
-      </c>
-      <c r="AF29" s="2">
-        <v>8.1199999999999992</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X29" s="1">
+        <v>44436</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>44458</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="26">
+        <v>44079</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>2.1848275859999999</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>3.082872928</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>1.986206897</v>
+      </c>
+      <c r="AI29" s="4">
+        <v>1.8934256060000001</v>
+      </c>
+      <c r="AJ29" s="4">
+        <v>1.3903448279999999</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>2.0883977900000001</v>
+      </c>
+      <c r="AL29" s="4">
+        <v>1.291034483</v>
+      </c>
+      <c r="AM29" s="4">
+        <v>3.3788819879999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44446</v>
       </c>
@@ -3303,17 +4548,47 @@
       <c r="S30" s="17"/>
       <c r="T30" s="4"/>
       <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AE30" s="1">
-        <v>44467</v>
-      </c>
-      <c r="AF30" s="2">
-        <v>90.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X30" s="1">
+        <v>44437</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>231.92</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>44459</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="26">
+        <v>44080</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>0.49792531099999998</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>9.6839274000000003E-2</v>
+      </c>
+      <c r="AI30" s="4">
+        <v>9.9653979000000004E-2</v>
+      </c>
+      <c r="AJ30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>9.9310344999999994E-2</v>
+      </c>
+      <c r="AL30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="4">
+        <v>0.29834254100000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44447</v>
       </c>
@@ -3345,17 +4620,47 @@
       <c r="S31" s="17"/>
       <c r="T31" s="4"/>
       <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AE31" s="1">
-        <v>44468</v>
-      </c>
-      <c r="AF31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X31" s="1">
+        <v>44438</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>16.57</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>44460</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>73.95</v>
+      </c>
+      <c r="AE31" s="26">
+        <v>44081</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44448</v>
       </c>
@@ -3387,17 +4692,47 @@
       <c r="S32" s="17"/>
       <c r="T32" s="4"/>
       <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="4"/>
-      <c r="AE32" s="1">
-        <v>44469</v>
-      </c>
-      <c r="AF32" s="2">
-        <v>50.71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X32" s="1">
+        <v>44439</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>21.37</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>44461</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>7.93</v>
+      </c>
+      <c r="AE32" s="26">
+        <v>44082</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>7.7462068970000004</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>7.8781163430000003</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>7.6521739130000004</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>7.8890429959999997</v>
+      </c>
+      <c r="AJ32" s="4">
+        <v>7.6468965520000003</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>8.2484472049999997</v>
+      </c>
+      <c r="AL32" s="4">
+        <v>7.5475862070000002</v>
+      </c>
+      <c r="AM32" s="4">
+        <v>7.6786703599999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44449</v>
       </c>
@@ -3420,18 +4755,43 @@
       <c r="R33" s="15"/>
       <c r="S33" s="17"/>
       <c r="T33" s="4"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AE33" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF33">
-        <f>SUM(AF3:AF32)</f>
-        <v>707.24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X33" s="1">
+        <v>44440</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>4.72</v>
+      </c>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="2"/>
+      <c r="AE33" s="26">
+        <v>44083</v>
+      </c>
+      <c r="AF33" s="4">
+        <v>3.7763975159999998</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>4.574585635</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>5.160578911</v>
+      </c>
+      <c r="AI33" s="4">
+        <v>3.7894736839999998</v>
+      </c>
+      <c r="AJ33" s="4">
+        <v>4.8662068969999996</v>
+      </c>
+      <c r="AK33" s="4">
+        <v>3.9779005519999999</v>
+      </c>
+      <c r="AL33" s="4">
+        <v>4.5651274979999998</v>
+      </c>
+      <c r="AM33" s="4">
+        <v>4.9723756909999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44450</v>
       </c>
@@ -3460,15 +4820,43 @@
       <c r="R34" s="15"/>
       <c r="S34" s="17"/>
       <c r="T34" s="4"/>
-      <c r="AE34" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF34">
-        <f>AVERAGE(AF3:AF32)</f>
-        <v>23.574666666666666</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X34" s="1">
+        <v>44441</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="2"/>
+      <c r="AE34" s="26">
+        <v>44084</v>
+      </c>
+      <c r="AF34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44451</v>
       </c>
@@ -3494,8 +4882,48 @@
       <c r="R35" s="15"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X35" s="1">
+        <v>44442</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB35">
+        <f>SUM(AB25:AB34)</f>
+        <v>83.18</v>
+      </c>
+      <c r="AE35" s="26">
+        <v>44085</v>
+      </c>
+      <c r="AF35" s="4">
+        <v>9.9241902000000007E-2</v>
+      </c>
+      <c r="AG35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="4">
+        <v>9.9447514000000001E-2</v>
+      </c>
+      <c r="AL35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44452</v>
       </c>
@@ -3518,8 +4946,48 @@
       <c r="R36" s="15"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X36" s="1">
+        <v>44443</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB36">
+        <f>AVERAGE(AB25:AB34)</f>
+        <v>10.397500000000001</v>
+      </c>
+      <c r="AE36" s="26">
+        <v>44086</v>
+      </c>
+      <c r="AF36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44453</v>
       </c>
@@ -3543,16 +5011,50 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AB37" s="6"/>
+      <c r="X37" s="1">
+        <v>44444</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>17.32</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB37">
+        <f>_xlfn.T.TEST(Y25:Y54,AB25:AB32,1,2)</f>
+        <v>0.22933015465276618</v>
+      </c>
       <c r="AC37" s="6"/>
       <c r="AD37" s="6"/>
-      <c r="AE37" s="6"/>
-      <c r="AF37" s="6"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE37" s="26">
+        <v>44087</v>
+      </c>
+      <c r="AF37" s="4">
+        <v>8.407331976</v>
+      </c>
+      <c r="AG37" s="4">
+        <v>12.45167854</v>
+      </c>
+      <c r="AH37" s="4">
+        <v>8.5046979870000001</v>
+      </c>
+      <c r="AI37" s="4">
+        <v>10.4114053</v>
+      </c>
+      <c r="AJ37" s="4">
+        <v>8.8720379149999999</v>
+      </c>
+      <c r="AK37" s="4">
+        <v>7.5274949080000004</v>
+      </c>
+      <c r="AL37" s="4">
+        <v>8.7983706720000008</v>
+      </c>
+      <c r="AM37" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44462</v>
       </c>
@@ -3574,15 +5076,43 @@
       </c>
       <c r="R38" s="15"/>
       <c r="S38" s="4"/>
-      <c r="X38" s="7"/>
-      <c r="Z38" s="7"/>
-      <c r="AB38" s="7"/>
+      <c r="X38" s="1">
+        <v>44445</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
-      <c r="AE38" s="7"/>
-      <c r="AF38" s="7"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AE38" s="26">
+        <v>44088</v>
+      </c>
+      <c r="AF38" s="4">
+        <v>8.8386206900000008</v>
+      </c>
+      <c r="AG38" s="4">
+        <v>13.4532872</v>
+      </c>
+      <c r="AH38" s="4">
+        <v>9.7257064090000007</v>
+      </c>
+      <c r="AI38" s="4">
+        <v>8.3825363829999997</v>
+      </c>
+      <c r="AJ38" s="4">
+        <v>4.6675862070000003</v>
+      </c>
+      <c r="AK38" s="4">
+        <v>9.4475138120000004</v>
+      </c>
+      <c r="AL38" s="4">
+        <v>6.4551724139999997</v>
+      </c>
+      <c r="AM38" s="4">
+        <v>13.04564315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44463</v>
       </c>
@@ -3602,8 +5132,41 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X39" s="1">
+        <v>44446</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="26">
+        <v>44097</v>
+      </c>
+      <c r="AF39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44464</v>
       </c>
@@ -3626,8 +5189,41 @@
       </c>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X40" s="1">
+        <v>44447</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>62.43</v>
+      </c>
+      <c r="AE40" s="26">
+        <v>44098</v>
+      </c>
+      <c r="AF40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44465</v>
       </c>
@@ -3646,8 +5242,41 @@
         <f>(P28-Q40)/Q40</f>
         <v>0.12798963879694902</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X41" s="1">
+        <v>44448</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>35.53</v>
+      </c>
+      <c r="AE41" s="26">
+        <v>44099</v>
+      </c>
+      <c r="AF41" s="4">
+        <v>1.290144728</v>
+      </c>
+      <c r="AG41" s="4">
+        <v>3.8865051899999998</v>
+      </c>
+      <c r="AH41" s="4">
+        <v>1.6562922870000001</v>
+      </c>
+      <c r="AI41" s="4">
+        <v>1.8960498960000001</v>
+      </c>
+      <c r="AJ41" s="4">
+        <v>1.290144728</v>
+      </c>
+      <c r="AK41" s="4">
+        <v>1.6894409939999999</v>
+      </c>
+      <c r="AL41" s="4">
+        <v>1.7863542379999999</v>
+      </c>
+      <c r="AM41" s="4">
+        <v>3.182320442</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44466</v>
       </c>
@@ -3662,8 +5291,41 @@
         <v>92.25</v>
       </c>
       <c r="J42" s="14"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X42" s="1">
+        <v>44449</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="26">
+        <v>44100</v>
+      </c>
+      <c r="AF42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44467</v>
       </c>
@@ -3678,8 +5340,41 @@
         <v>94.7</v>
       </c>
       <c r="J43" s="14"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X43" s="1">
+        <v>44450</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AE43" s="26">
+        <v>44101</v>
+      </c>
+      <c r="AF43" s="4">
+        <v>0.693259972</v>
+      </c>
+      <c r="AG43" s="4">
+        <v>1.6906077349999999</v>
+      </c>
+      <c r="AH43" s="4">
+        <v>0.97165991900000004</v>
+      </c>
+      <c r="AI43" s="4">
+        <v>0.99585062199999996</v>
+      </c>
+      <c r="AJ43" s="4">
+        <v>0.89379310300000003</v>
+      </c>
+      <c r="AK43" s="4">
+        <v>0.39751552800000001</v>
+      </c>
+      <c r="AL43" s="4">
+        <v>0.99310344800000006</v>
+      </c>
+      <c r="AM43" s="4">
+        <v>1.3922651930000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44468</v>
       </c>
@@ -3694,8 +5389,41 @@
         <v>69.716666666666654</v>
       </c>
       <c r="J44" s="14"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X44" s="1">
+        <v>44451</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="26">
+        <v>44102</v>
+      </c>
+      <c r="AF44" s="4">
+        <v>8.64</v>
+      </c>
+      <c r="AG44" s="4">
+        <v>12.158590309999999</v>
+      </c>
+      <c r="AH44" s="4">
+        <v>15.678646929999999</v>
+      </c>
+      <c r="AI44" s="4">
+        <v>9.9602649010000004</v>
+      </c>
+      <c r="AJ44" s="4">
+        <v>11.02344828</v>
+      </c>
+      <c r="AK44" s="4">
+        <v>10.441988950000001</v>
+      </c>
+      <c r="AL44" s="4">
+        <v>9.9105299379999998</v>
+      </c>
+      <c r="AM44" s="4">
+        <v>12.14966985</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44469</v>
       </c>
@@ -3710,8 +5438,41 @@
         <v>24.183333333333334</v>
       </c>
       <c r="J45" s="14"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X45" s="1">
+        <v>44452</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>76.27</v>
+      </c>
+      <c r="AE45" s="26">
+        <v>44103</v>
+      </c>
+      <c r="AF45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="E46" s="2"/>
       <c r="H46" s="14">
@@ -3721,8 +5482,41 @@
         <v>6.6166666666666671</v>
       </c>
       <c r="J46" s="14"/>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X46" s="1">
+        <v>44453</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>73.95</v>
+      </c>
+      <c r="AE46" s="26">
+        <v>44104</v>
+      </c>
+      <c r="AF46" s="4">
+        <v>5.7560303240000001</v>
+      </c>
+      <c r="AG46" s="4">
+        <v>9.7660899650000008</v>
+      </c>
+      <c r="AH46" s="4">
+        <v>3.4724943480000001</v>
+      </c>
+      <c r="AI46" s="4">
+        <v>5.0929264910000001</v>
+      </c>
+      <c r="AJ46" s="4">
+        <v>5.0648275859999998</v>
+      </c>
+      <c r="AK46" s="4">
+        <v>5.8674033149999998</v>
+      </c>
+      <c r="AL46" s="4">
+        <v>4.0689179879999999</v>
+      </c>
+      <c r="AM46" s="4">
+        <v>10.946786449999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -3738,14 +5532,61 @@
         <v>2.0750000000000006</v>
       </c>
       <c r="J47" s="14"/>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X47" s="1">
+        <v>44462</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF47">
+        <f>AVERAGE(AF3:AF46)</f>
+        <v>2.2599075944772724</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" ref="AG47:AM47" si="6">AVERAGE(AG3:AG46)</f>
+        <v>3.084868629704546</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="6"/>
+        <v>2.5638895427954544</v>
+      </c>
+      <c r="AI47">
+        <f t="shared" si="6"/>
+        <v>2.2713493204545454</v>
+      </c>
+      <c r="AJ47">
+        <f t="shared" si="6"/>
+        <v>2.2042805058636361</v>
+      </c>
+      <c r="AK47">
+        <f t="shared" si="6"/>
+        <v>2.289103680454545</v>
+      </c>
+      <c r="AL47">
+        <f t="shared" si="6"/>
+        <v>2.2850074581590909</v>
+      </c>
+      <c r="AM47">
+        <f t="shared" si="6"/>
+        <v>3.1169305803409091</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B48">
         <f>AVERAGE(B2:B45)</f>
         <v>20.090227272727272</v>
+      </c>
+      <c r="X48" s="1">
+        <v>44463</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:26" x14ac:dyDescent="0.3">
@@ -3759,6 +5600,12 @@
         <f>AVERAGE(I42:I47)</f>
         <v>48.256944444444436</v>
       </c>
+      <c r="X49" s="1">
+        <v>44464</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>16.73</v>
+      </c>
     </row>
     <row r="50" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
@@ -3767,42 +5614,72 @@
         <f>(I49-H49)/H49</f>
         <v>0.71081786400118141</v>
       </c>
+      <c r="X50" s="1">
+        <v>44465</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
+      <c r="X51" s="1">
+        <v>44466</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>8.1199999999999992</v>
+      </c>
     </row>
     <row r="52" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
+      <c r="X52" s="1">
+        <v>44467</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>90.3</v>
+      </c>
     </row>
     <row r="53" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
+      <c r="X53" s="1">
+        <v>44468</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="4"/>
+      <c r="X54" s="1">
+        <v>44469</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>50.71</v>
+      </c>
     </row>
     <row r="55" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
       <c r="W55" s="4"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
+      <c r="X55" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y55">
+        <f>SUM(Y25:Y54)</f>
+        <v>707.24</v>
+      </c>
     </row>
     <row r="56" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
       <c r="W56" s="4"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
+      <c r="X56" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y56">
+        <f>AVERAGE(Y25:Y54)</f>
+        <v>23.574666666666666</v>
+      </c>
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.3">
       <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
     </row>
     <row r="58" spans="2:26" x14ac:dyDescent="0.3">
       <c r="W58" s="4"/>
@@ -3853,11 +5730,13 @@
       <c r="Z65" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="AO1:AW1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="X1:AB2"/>
-    <mergeCell ref="AE1:AI2"/>
+    <mergeCell ref="X23:AB24"/>
+    <mergeCell ref="AE1:AM1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
